--- a/Leitor e editor Excel/registros.xlsx
+++ b/Leitor e editor Excel/registros.xlsx
@@ -104,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -298,12 +298,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF505050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF505050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -384,7 +397,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,40 +501,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF9933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2EF646"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0099FF"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -546,50 +531,6 @@
       <font>
         <b val="1"/>
         <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3333CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="2"/>
       </font>
       <fill>
         <patternFill>
@@ -644,11 +585,88 @@
     <dxf>
       <font>
         <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF2EF646"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0099FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3333CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -670,7 +688,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -692,7 +710,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -703,7 +721,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1070,14 +1088,14 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.86328125" customWidth="1" style="24" min="1" max="1"/>
-    <col width="9.68359375" customWidth="1" style="24" min="2" max="2"/>
-    <col width="32.28515625" customWidth="1" style="24" min="3" max="3"/>
+    <col width="32.95703125" customWidth="1" style="24" min="1" max="1"/>
+    <col width="17.21875" customWidth="1" style="24" min="2" max="2"/>
+    <col width="22.05859375" customWidth="1" style="24" min="3" max="3"/>
     <col width="12.5078125" customWidth="1" style="24" min="4" max="4"/>
     <col width="20.3125" customWidth="1" style="24" min="5" max="5"/>
     <col width="10.22265625" customWidth="1" style="24" min="6" max="6"/>
@@ -1248,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="27">
-        <f>SUM(B2:B8)</f>
+        <f>SUM(B2:B19)</f>
         <v/>
       </c>
       <c r="K6" s="22" t="n"/>
@@ -1282,102 +1300,196 @@
       <c r="M7" s="22" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="inlineStr">
-        <is>
-          <t>SASA</t>
-        </is>
-      </c>
-      <c r="B8" s="20" t="n">
+      <c r="A8" s="13" t="inlineStr">
+        <is>
+          <t>CLUBE DA LUTA</t>
+        </is>
+      </c>
+      <c r="B8" s="28" t="n">
         <v>0.09652777777777778</v>
       </c>
-      <c r="C8" s="18" t="inlineStr">
+      <c r="C8" s="13" t="inlineStr">
         <is>
           <t>FILME</t>
         </is>
       </c>
-      <c r="D8" s="18" t="inlineStr">
+      <c r="D8" s="13" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E8" s="18" t="n">
+      <c r="E8" s="13" t="n">
         <v>5</v>
       </c>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="22" t="n"/>
       <c r="M8" s="22" t="n"/>
     </row>
+    <row r="9">
+      <c r="A9" s="19" t="inlineStr">
+        <is>
+          <t>MAX STEEL:PERIGO DE EXTINÇÃO</t>
+        </is>
+      </c>
+      <c r="B9" s="27" t="n">
+        <v>0.04865740740740741</v>
+      </c>
+      <c r="C9" s="19" t="n"/>
+      <c r="D9" s="19" t="n"/>
+      <c r="E9" s="19" t="n"/>
+    </row>
     <row r="10">
-      <c r="C10" s="22" t="n"/>
-      <c r="D10" s="23" t="n"/>
-      <c r="E10" s="22" t="n"/>
+      <c r="A10" s="19" t="inlineStr">
+        <is>
+          <t>MAX STEEL:DOMÍNIO DOS ELEMENTOS</t>
+        </is>
+      </c>
+      <c r="B10" s="27" t="n">
+        <v>0.03607638888888889</v>
+      </c>
+      <c r="C10" s="19" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="19" t="n"/>
       <c r="F10" s="22" t="n"/>
       <c r="G10" s="22" t="n"/>
     </row>
     <row r="11">
-      <c r="C11" s="22" t="n"/>
-      <c r="D11" s="23" t="n"/>
-      <c r="E11" s="22" t="n"/>
+      <c r="A11" s="19" t="inlineStr">
+        <is>
+          <t>MAX STEEL:  ONTAGEM REGRESSIVA</t>
+        </is>
+      </c>
+      <c r="B11" s="27" t="n">
+        <v>0.03635416666666667</v>
+      </c>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="19" t="n"/>
       <c r="F11" s="22" t="n"/>
       <c r="G11" s="22" t="n"/>
     </row>
     <row r="12">
-      <c r="C12" s="22" t="n"/>
-      <c r="D12" s="23" t="n"/>
-      <c r="E12" s="22" t="n"/>
+      <c r="A12" s="19" t="inlineStr">
+        <is>
+          <t>MAX STEEL:VS O INIMIGO DAS TREVAS</t>
+        </is>
+      </c>
+      <c r="B12" s="27" t="n">
+        <v>0.03587962962962963</v>
+      </c>
+      <c r="C12" s="19" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="19" t="n"/>
       <c r="F12" s="22" t="n"/>
       <c r="G12" s="22" t="n"/>
     </row>
     <row r="13">
-      <c r="C13" s="22" t="n"/>
-      <c r="D13" s="23" t="n"/>
-      <c r="E13" s="22" t="n"/>
+      <c r="A13" s="19" t="inlineStr">
+        <is>
+          <t>MAX STEEL: BIO CRISIS</t>
+        </is>
+      </c>
+      <c r="B13" s="27" t="n">
+        <v>0.03282407407407407</v>
+      </c>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="19" t="n"/>
       <c r="F13" s="22" t="n"/>
       <c r="G13" s="22" t="n"/>
     </row>
     <row r="14">
-      <c r="C14" s="22" t="n"/>
-      <c r="D14" s="23" t="n"/>
-      <c r="E14" s="22" t="n"/>
+      <c r="A14" s="19" t="inlineStr">
+        <is>
+          <t>MAX STEEL: A AMEAÇA MUTANTE</t>
+        </is>
+      </c>
+      <c r="B14" s="27" t="n">
+        <v>0.03271990740740741</v>
+      </c>
+      <c r="C14" s="19" t="n"/>
+      <c r="D14" s="27" t="n"/>
+      <c r="E14" s="19" t="n"/>
       <c r="F14" s="22" t="n"/>
       <c r="G14" s="22" t="n"/>
     </row>
     <row r="15">
-      <c r="C15" s="22" t="n"/>
-      <c r="D15" s="23" t="n"/>
-      <c r="E15" s="22" t="n"/>
+      <c r="A15" s="19" t="inlineStr">
+        <is>
+          <t>MAX STEEL: A LEGIÃO TÓXICA</t>
+        </is>
+      </c>
+      <c r="B15" s="27" t="n">
+        <v>0.03300925925925926</v>
+      </c>
+      <c r="C15" s="19" t="n"/>
+      <c r="D15" s="27" t="n"/>
+      <c r="E15" s="19" t="n"/>
       <c r="F15" s="22" t="n"/>
       <c r="G15" s="22" t="n"/>
     </row>
     <row r="16">
-      <c r="C16" s="22" t="n"/>
-      <c r="D16" s="23" t="n"/>
-      <c r="E16" s="22" t="n"/>
+      <c r="A16" s="19" t="inlineStr">
+        <is>
+          <t>MAX STEEL: A VINGANÇA DE MAKINO</t>
+        </is>
+      </c>
+      <c r="B16" s="27" t="n">
+        <v>0.0343287037037037</v>
+      </c>
+      <c r="C16" s="19" t="n"/>
+      <c r="D16" s="27" t="n"/>
+      <c r="E16" s="19" t="n"/>
       <c r="F16" s="22" t="n"/>
       <c r="G16" s="22" t="n"/>
     </row>
     <row r="17">
-      <c r="C17" s="22" t="n"/>
-      <c r="D17" s="23" t="n"/>
-      <c r="E17" s="22" t="n"/>
+      <c r="A17" s="19" t="inlineStr">
+        <is>
+          <t>MAX STEEL: ALIANÇA MONSTRUOSA</t>
+        </is>
+      </c>
+      <c r="B17" s="27" t="n">
+        <v>0.03984953703703704</v>
+      </c>
+      <c r="C17" s="19" t="n"/>
+      <c r="D17" s="27" t="n"/>
+      <c r="E17" s="19" t="n"/>
       <c r="F17" s="22" t="n"/>
       <c r="G17" s="22" t="n"/>
     </row>
     <row r="18">
-      <c r="C18" s="22" t="n"/>
-      <c r="D18" s="23" t="n"/>
-      <c r="E18" s="22" t="n"/>
+      <c r="A18" s="19" t="inlineStr">
+        <is>
+          <t>RAMBO</t>
+        </is>
+      </c>
+      <c r="B18" s="27" t="n"/>
+      <c r="C18" s="19" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="19" t="n"/>
       <c r="F18" s="22" t="n"/>
       <c r="G18" s="22" t="n"/>
     </row>
     <row r="19">
-      <c r="C19" s="22" t="n"/>
-      <c r="D19" s="23" t="n"/>
-      <c r="E19" s="22" t="n"/>
+      <c r="A19" s="19" t="inlineStr">
+        <is>
+          <t>RAMBO 2</t>
+        </is>
+      </c>
+      <c r="B19" s="27" t="n"/>
+      <c r="C19" s="19" t="n"/>
+      <c r="D19" s="27" t="n"/>
+      <c r="E19" s="19" t="n"/>
       <c r="F19" s="22" t="n"/>
       <c r="G19" s="22" t="n"/>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>RAMBO 3</t>
+        </is>
+      </c>
       <c r="C20" s="22" t="n"/>
       <c r="D20" s="23" t="n"/>
       <c r="E20" s="22" t="n"/>
@@ -1543,10 +1655,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1556,13 +1668,14 @@
     <col width="15.19921875" customWidth="1" style="24" min="3" max="3"/>
     <col width="15.46875" customWidth="1" style="24" min="4" max="4"/>
     <col width="10.76171875" customWidth="1" style="24" min="5" max="5"/>
-    <col width="17.75390625" customWidth="1" style="24" min="6" max="6"/>
-    <col width="6.05078125" customWidth="1" style="24" min="7" max="7"/>
-    <col width="7.53125" customWidth="1" style="24" min="8" max="8"/>
-    <col width="10.625" customWidth="1" style="24" min="9" max="9"/>
-    <col width="13.98828125" customWidth="1" style="24" min="15" max="15"/>
-    <col width="16.140625" customWidth="1" style="24" min="16" max="16"/>
-    <col width="27.171875" customWidth="1" style="24" min="17" max="17"/>
+    <col width="14.2578125" customWidth="1" style="24" min="6" max="6"/>
+    <col width="17.890625" customWidth="1" style="24" min="7" max="7"/>
+    <col width="6.05078125" customWidth="1" style="24" min="8" max="8"/>
+    <col width="7.53125" customWidth="1" style="24" min="9" max="9"/>
+    <col width="10.625" customWidth="1" style="24" min="10" max="10"/>
+    <col width="13.98828125" customWidth="1" style="24" min="16" max="16"/>
+    <col width="16.140625" customWidth="1" style="24" min="17" max="17"/>
+    <col width="27.171875" customWidth="1" style="24" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1593,6 +1706,11 @@
       </c>
       <c r="F1" s="19" t="inlineStr">
         <is>
+          <t>TIPO</t>
+        </is>
+      </c>
+      <c r="G1" s="29" t="inlineStr">
+        <is>
           <t>STATUS</t>
         </is>
       </c>
@@ -1600,14 +1718,14 @@
     <row r="2">
       <c r="A2" s="18" t="inlineStr">
         <is>
-          <t>A CENTESIMA REGRESSAO DO JOGADOR DE NIVEL MAXIMO</t>
+          <t>BAKI DOU 2014</t>
         </is>
       </c>
       <c r="B2" s="18" t="n">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C2" s="18" t="n">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="D2" s="16">
         <f>C2/B2</f>
@@ -1617,23 +1735,27 @@
         <f>B2-C2</f>
         <v/>
       </c>
-      <c r="F2" s="19" t="inlineStr">
-        <is>
-          <t>DESCONTINUADO</t>
-        </is>
-      </c>
+      <c r="F2" s="19" t="n"/>
+      <c r="G2" s="29" t="inlineStr">
+        <is>
+          <t>FINALIZADO</t>
+        </is>
+      </c>
+      <c r="P2" s="22" t="n"/>
+      <c r="Q2" s="22" t="n"/>
+      <c r="R2" s="22" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="18" t="inlineStr">
         <is>
-          <t>ABSOLUTE NECROMANCER</t>
+          <t>BAKI DOU 2018</t>
         </is>
       </c>
       <c r="B3" s="18" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" s="18" t="n">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="D3" s="16">
         <f>C3/B3</f>
@@ -1643,32 +1765,26 @@
         <f>B3-C3</f>
         <v/>
       </c>
-      <c r="F3" s="19" t="inlineStr">
-        <is>
-          <t>DESCONTINUADO</t>
-        </is>
-      </c>
-      <c r="I3" s="28" t="inlineStr">
-        <is>
-          <t>TOTAL LIDO</t>
-        </is>
-      </c>
-      <c r="J3" s="19">
-        <f>SUM(C2:C63)</f>
-        <v/>
-      </c>
+      <c r="F3" s="19" t="n"/>
+      <c r="G3" s="29" t="inlineStr">
+        <is>
+          <t>FINALIZADO</t>
+        </is>
+      </c>
+      <c r="P3" s="22" t="n"/>
+      <c r="R3" s="22" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="18" t="inlineStr">
         <is>
-          <t>APOCALYPSE INVINCIBLE</t>
+          <t>BAKI GAIDEN: RETSU KAIOH ISEKAI</t>
         </is>
       </c>
       <c r="B4" s="18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="16">
         <f>C4/B4</f>
@@ -1678,28 +1794,26 @@
         <f>B4-C4</f>
         <v/>
       </c>
-      <c r="F4" s="19" t="inlineStr">
-        <is>
-          <t>DESCONTINUADO</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
+      <c r="F4" s="19" t="n"/>
+      <c r="G4" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
+        </is>
+      </c>
+      <c r="P4" s="22" t="n"/>
+      <c r="R4" s="22" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="18" t="inlineStr">
         <is>
-          <t>ATQUE ÚNICO:CEM MILHOES DE DANO</t>
+          <t>BAKI GAIDEN: REVENGE TOKYO</t>
         </is>
       </c>
       <c r="B5" s="18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="16">
         <f>C5/B5</f>
@@ -1709,26 +1823,26 @@
         <f>B5-C5</f>
         <v/>
       </c>
-      <c r="F5" s="19" t="inlineStr">
-        <is>
-          <t>Descontinuado</t>
-        </is>
-      </c>
-      <c r="O5" s="22" t="n"/>
+      <c r="F5" s="19" t="n"/>
+      <c r="G5" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
+        </is>
+      </c>
       <c r="P5" s="22" t="n"/>
-      <c r="Q5" s="22" t="n"/>
+      <c r="R5" s="22" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="inlineStr">
         <is>
-          <t>BAKI DOU 2014</t>
+          <t>BAKI GAIDEN: YUUENCHI</t>
         </is>
       </c>
       <c r="B6" s="18" t="n">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="C6" s="18" t="n">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="D6" s="16">
         <f>C6/B6</f>
@@ -1738,26 +1852,27 @@
         <f>B6-C6</f>
         <v/>
       </c>
-      <c r="F6" s="19" t="inlineStr">
-        <is>
-          <t>FINALIZADO</t>
-        </is>
-      </c>
-      <c r="O6" s="22" t="n"/>
+      <c r="F6" s="19" t="n"/>
+      <c r="G6" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
+        </is>
+      </c>
       <c r="P6" s="22" t="n"/>
       <c r="Q6" s="22" t="n"/>
+      <c r="R6" s="22" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="inlineStr">
         <is>
-          <t>BAKI DOU 2018</t>
+          <t>BAKI GAIDEN:GAIA &amp; SIKORSKY</t>
         </is>
       </c>
       <c r="B7" s="18" t="n">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="C7" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="16">
         <f>C7/B7</f>
@@ -1767,25 +1882,27 @@
         <f>B7-C7</f>
         <v/>
       </c>
-      <c r="F7" s="19" t="inlineStr">
-        <is>
-          <t>FINALIZADO</t>
-        </is>
-      </c>
-      <c r="O7" s="22" t="n"/>
+      <c r="F7" s="19" t="n"/>
+      <c r="G7" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
+        </is>
+      </c>
+      <c r="P7" s="22" t="n"/>
       <c r="Q7" s="22" t="n"/>
+      <c r="R7" s="22" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="18" t="inlineStr">
         <is>
-          <t>BAKI GAIDEN: RETSU KAIOH ISEKAI</t>
+          <t>BAKI GAIDEN:KENJIN</t>
         </is>
       </c>
       <c r="B8" s="18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="16">
         <f>C8/B8</f>
@@ -1795,25 +1912,26 @@
         <f>B8-C8</f>
         <v/>
       </c>
-      <c r="F8" s="19" t="inlineStr">
+      <c r="F8" s="19" t="n"/>
+      <c r="G8" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
       </c>
-      <c r="O8" s="22" t="n"/>
+      <c r="P8" s="22" t="n"/>
       <c r="Q8" s="22" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="18" t="inlineStr">
         <is>
-          <t>BAKI GAIDEN: REVENGE TOKYO</t>
+          <t>BAKI GAIDEN:KIZUZURA</t>
         </is>
       </c>
       <c r="B9" s="18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="16">
         <f>C9/B9</f>
@@ -1823,25 +1941,27 @@
         <f>B9-C9</f>
         <v/>
       </c>
-      <c r="F9" s="19" t="inlineStr">
+      <c r="F9" s="19" t="n"/>
+      <c r="G9" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
       </c>
-      <c r="O9" s="22" t="n"/>
+      <c r="P9" s="22" t="n"/>
       <c r="Q9" s="22" t="n"/>
+      <c r="R9" s="22" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="18" t="inlineStr">
         <is>
-          <t>BAKI GAIDEN: YUUENCHI</t>
+          <t>BAKI RAHEN</t>
         </is>
       </c>
       <c r="B10" s="18" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C10" s="18" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D10" s="16">
         <f>C10/B10</f>
@@ -1851,26 +1971,24 @@
         <f>B10-C10</f>
         <v/>
       </c>
-      <c r="F10" s="19" t="inlineStr">
+      <c r="F10" s="19" t="n"/>
+      <c r="G10" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
       </c>
-      <c r="O10" s="22" t="n"/>
-      <c r="P10" s="22" t="n"/>
-      <c r="Q10" s="22" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="18" t="inlineStr">
         <is>
-          <t>BAKI GAIDEN:GAIA &amp; SIKORSKY</t>
+          <t>BASTARD !!</t>
         </is>
       </c>
       <c r="B11" s="18" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C11" s="18" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="D11" s="16">
         <f>C11/B11</f>
@@ -1880,26 +1998,24 @@
         <f>B11-C11</f>
         <v/>
       </c>
-      <c r="F11" s="19" t="inlineStr">
-        <is>
-          <t>EM ANDAMENTO</t>
-        </is>
-      </c>
-      <c r="O11" s="22" t="n"/>
-      <c r="P11" s="22" t="n"/>
-      <c r="Q11" s="22" t="n"/>
+      <c r="F11" s="19" t="n"/>
+      <c r="G11" s="29" t="inlineStr">
+        <is>
+          <t>FINALIZADO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="18" t="inlineStr">
         <is>
-          <t>BAKI GAIDEN:KENJIN</t>
+          <t>BERSERK</t>
         </is>
       </c>
       <c r="B12" s="18" t="n">
-        <v>5</v>
+        <v>395</v>
       </c>
       <c r="C12" s="18" t="n">
-        <v>5</v>
+        <v>393</v>
       </c>
       <c r="D12" s="16">
         <f>C12/B12</f>
@@ -1909,25 +2025,24 @@
         <f>B12-C12</f>
         <v/>
       </c>
-      <c r="F12" s="19" t="inlineStr">
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
       </c>
-      <c r="O12" s="22" t="n"/>
-      <c r="P12" s="22" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="18" t="inlineStr">
         <is>
-          <t>BAKI GAIDEN:KIZUZURA</t>
+          <t>BEASTARS</t>
         </is>
       </c>
       <c r="B13" s="18" t="n">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="C13" s="18" t="n">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="D13" s="16">
         <f>C13/B13</f>
@@ -1937,26 +2052,24 @@
         <f>B13-C13</f>
         <v/>
       </c>
-      <c r="F13" s="19" t="inlineStr">
-        <is>
-          <t>EM ANDAMENTO</t>
-        </is>
-      </c>
-      <c r="O13" s="22" t="n"/>
-      <c r="P13" s="22" t="n"/>
-      <c r="Q13" s="22" t="n"/>
+      <c r="F13" s="19" t="n"/>
+      <c r="G13" s="29" t="inlineStr">
+        <is>
+          <t>FINALIZADO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="18" t="inlineStr">
         <is>
-          <t>BAKI RAHEN</t>
+          <t>BIBLIOMANIA</t>
         </is>
       </c>
       <c r="B14" s="18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C14" s="18" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14" s="16">
         <f>C14/B14</f>
@@ -1966,23 +2079,24 @@
         <f>B14-C14</f>
         <v/>
       </c>
-      <c r="F14" s="19" t="inlineStr">
-        <is>
-          <t>EM ANDAMENTO</t>
+      <c r="F14" s="19" t="n"/>
+      <c r="G14" s="29" t="inlineStr">
+        <is>
+          <t>FINALIZADO</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="18" t="inlineStr">
         <is>
-          <t>BASTARD !!</t>
+          <t>BLACK CLOVER</t>
         </is>
       </c>
       <c r="B15" s="18" t="n">
-        <v>102</v>
+        <v>372</v>
       </c>
       <c r="C15" s="18" t="n">
-        <v>102</v>
+        <v>372</v>
       </c>
       <c r="D15" s="16">
         <f>C15/B15</f>
@@ -1992,23 +2106,26 @@
         <f>B15-C15</f>
         <v/>
       </c>
-      <c r="F15" s="19" t="inlineStr">
-        <is>
-          <t>FINALIZADO</t>
+      <c r="F15" s="19" t="n"/>
+      <c r="G15" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="18" t="inlineStr">
         <is>
-          <t>BEASTARS</t>
+          <t>BLUE EXORCIST</t>
         </is>
       </c>
       <c r="B16" s="18" t="n">
-        <v>196</v>
-      </c>
-      <c r="C16" s="18" t="n">
-        <v>196</v>
+        <v>164</v>
+      </c>
+      <c r="C16" s="18" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="D16" s="16">
         <f>C16/B16</f>
@@ -2018,23 +2135,24 @@
         <f>B16-C16</f>
         <v/>
       </c>
-      <c r="F16" s="19" t="inlineStr">
-        <is>
-          <t>FINALIZADO</t>
+      <c r="F16" s="19" t="n"/>
+      <c r="G16" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="18" t="inlineStr">
         <is>
-          <t>BIBLIOMANIA</t>
+          <t>BLEACH</t>
         </is>
       </c>
       <c r="B17" s="18" t="n">
-        <v>12</v>
+        <v>698</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>12</v>
+        <v>698</v>
       </c>
       <c r="D17" s="16">
         <f>C17/B17</f>
@@ -2044,7 +2162,8 @@
         <f>B17-C17</f>
         <v/>
       </c>
-      <c r="F17" s="19" t="inlineStr">
+      <c r="F17" s="19" t="n"/>
+      <c r="G17" s="29" t="inlineStr">
         <is>
           <t>FINALIZADO</t>
         </is>
@@ -2053,14 +2172,16 @@
     <row r="18">
       <c r="A18" s="18" t="inlineStr">
         <is>
-          <t>BLACK CLOVER</t>
+          <t>BLUE LOCK</t>
         </is>
       </c>
       <c r="B18" s="18" t="n">
-        <v>372</v>
-      </c>
-      <c r="C18" s="18" t="n">
-        <v>372</v>
+        <v>279</v>
+      </c>
+      <c r="C18" s="18" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
       </c>
       <c r="D18" s="16">
         <f>C18/B18</f>
@@ -2070,7 +2191,8 @@
         <f>B18-C18</f>
         <v/>
       </c>
-      <c r="F18" s="19" t="inlineStr">
+      <c r="F18" s="19" t="n"/>
+      <c r="G18" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2079,14 +2201,14 @@
     <row r="19">
       <c r="A19" s="18" t="inlineStr">
         <is>
-          <t>BLEACH</t>
+          <t>BLUE LOCK: EPISODE NAGI</t>
         </is>
       </c>
       <c r="B19" s="18" t="n">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="C19" s="18" t="n">
-        <v>698</v>
+        <v>29</v>
       </c>
       <c r="D19" s="16">
         <f>C19/B19</f>
@@ -2096,23 +2218,24 @@
         <f>B19-C19</f>
         <v/>
       </c>
-      <c r="F19" s="19" t="inlineStr">
-        <is>
-          <t>FINALIZADO</t>
+      <c r="F19" s="19" t="n"/>
+      <c r="G19" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="18" t="inlineStr">
         <is>
-          <t>BLUE LOCK</t>
+          <t>BORUTO TWO BLUE VORTEX</t>
         </is>
       </c>
       <c r="B20" s="18" t="n">
-        <v>272</v>
+        <v>16</v>
       </c>
       <c r="C20" s="18" t="n">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="D20" s="16">
         <f>C20/B20</f>
@@ -2122,7 +2245,8 @@
         <f>B20-C20</f>
         <v/>
       </c>
-      <c r="F20" s="19" t="inlineStr">
+      <c r="F20" s="19" t="n"/>
+      <c r="G20" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2131,14 +2255,14 @@
     <row r="21">
       <c r="A21" s="18" t="inlineStr">
         <is>
-          <t>BLUE LOCK: EPISODE NAGI</t>
+          <t>BOUNDLESS NECROMANCER</t>
         </is>
       </c>
       <c r="B21" s="18" t="n">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="C21" s="18" t="n">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D21" s="16">
         <f>C21/B21</f>
@@ -2148,7 +2272,8 @@
         <f>B21-C21</f>
         <v/>
       </c>
-      <c r="F21" s="19" t="inlineStr">
+      <c r="F21" s="19" t="n"/>
+      <c r="G21" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2157,14 +2282,14 @@
     <row r="22">
       <c r="A22" s="18" t="inlineStr">
         <is>
-          <t>BORUTO TWO BLUE VORTEX</t>
+          <t>CHAINSAW MAN</t>
         </is>
       </c>
       <c r="B22" s="18" t="n">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="C22" s="18" t="n">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="D22" s="16">
         <f>C22/B22</f>
@@ -2174,7 +2299,8 @@
         <f>B22-C22</f>
         <v/>
       </c>
-      <c r="F22" s="19" t="inlineStr">
+      <c r="F22" s="19" t="n"/>
+      <c r="G22" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2183,14 +2309,14 @@
     <row r="23">
       <c r="A23" s="18" t="inlineStr">
         <is>
-          <t>BOUNDLESS NECROMANCER</t>
+          <t>COMEÇANDO A EVOLUÇÃO COMO UMA GRANDE ÁRVORE</t>
         </is>
       </c>
       <c r="B23" s="18" t="n">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="C23" s="18" t="n">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="D23" s="16">
         <f>C23/B23</f>
@@ -2200,7 +2326,8 @@
         <f>B23-C23</f>
         <v/>
       </c>
-      <c r="F23" s="19" t="inlineStr">
+      <c r="F23" s="19" t="n"/>
+      <c r="G23" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2209,14 +2336,14 @@
     <row r="24">
       <c r="A24" s="18" t="inlineStr">
         <is>
-          <t>CHAINSAW MAN</t>
+          <t>DANDADAN</t>
         </is>
       </c>
       <c r="B24" s="18" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C24" s="18" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D24" s="16">
         <f>C24/B24</f>
@@ -2226,7 +2353,8 @@
         <f>B24-C24</f>
         <v/>
       </c>
-      <c r="F24" s="19" t="inlineStr">
+      <c r="F24" s="19" t="n"/>
+      <c r="G24" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2239,10 +2367,10 @@
         </is>
       </c>
       <c r="B25" s="18" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C25" s="18" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D25" s="16">
         <f>C25/B25</f>
@@ -2252,7 +2380,8 @@
         <f>B25-C25</f>
         <v/>
       </c>
-      <c r="F25" s="19" t="inlineStr">
+      <c r="F25" s="19" t="n"/>
+      <c r="G25" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2261,14 +2390,14 @@
     <row r="26">
       <c r="A26" s="18" t="inlineStr">
         <is>
-          <t>DOOMSDAY FOR ALL:ME, VIRUS MONARCH</t>
+          <t>EU ME TORNEI O REI COLETOR</t>
         </is>
       </c>
       <c r="B26" s="18" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C26" s="18" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D26" s="16">
         <f>C26/B26</f>
@@ -2278,23 +2407,24 @@
         <f>B26-C26</f>
         <v/>
       </c>
-      <c r="F26" s="19" t="inlineStr">
-        <is>
-          <t>Descontinuado</t>
+      <c r="F26" s="19" t="n"/>
+      <c r="G26" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="18" t="inlineStr">
         <is>
-          <t>DRAGON BALL KAKUMEI</t>
+          <t>EXISTENCE</t>
         </is>
       </c>
       <c r="B27" s="18" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C27" s="18" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D27" s="16">
         <f>C27/B27</f>
@@ -2304,7 +2434,8 @@
         <f>B27-C27</f>
         <v/>
       </c>
-      <c r="F27" s="19" t="inlineStr">
+      <c r="F27" s="19" t="n"/>
+      <c r="G27" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2313,14 +2444,14 @@
     <row r="28">
       <c r="A28" s="18" t="inlineStr">
         <is>
-          <t>EU ME TORNEI O REI COLETOR</t>
+          <t>FIRE FORCE</t>
         </is>
       </c>
       <c r="B28" s="18" t="n">
-        <v>21</v>
+        <v>305</v>
       </c>
       <c r="C28" s="18" t="n">
-        <v>21</v>
+        <v>305</v>
       </c>
       <c r="D28" s="16">
         <f>C28/B28</f>
@@ -2330,7 +2461,8 @@
         <f>B28-C28</f>
         <v/>
       </c>
-      <c r="F28" s="19" t="inlineStr">
+      <c r="F28" s="19" t="n"/>
+      <c r="G28" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2339,14 +2471,14 @@
     <row r="29">
       <c r="A29" s="18" t="inlineStr">
         <is>
-          <t>HANMA BAKI</t>
+          <t>GUARD PASS</t>
         </is>
       </c>
       <c r="B29" s="18" t="n">
-        <v>302</v>
+        <v>72</v>
       </c>
       <c r="C29" s="18" t="n">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="D29" s="16">
         <f>C29/B29</f>
@@ -2356,23 +2488,24 @@
         <f>B29-C29</f>
         <v/>
       </c>
-      <c r="F29" s="19" t="inlineStr">
-        <is>
-          <t>FINALIZADO</t>
+      <c r="F29" s="19" t="n"/>
+      <c r="G29" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="18" t="inlineStr">
         <is>
-          <t>JUUJIKA NO ROKUNIN</t>
+          <t>HANMA BAKI</t>
         </is>
       </c>
       <c r="B30" s="18" t="n">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="C30" s="18" t="n">
-        <v>177</v>
+        <v>302</v>
       </c>
       <c r="D30" s="16">
         <f>C30/B30</f>
@@ -2382,23 +2515,24 @@
         <f>B30-C30</f>
         <v/>
       </c>
-      <c r="F30" s="19" t="inlineStr">
-        <is>
-          <t>EM ANDAMENTO</t>
+      <c r="F30" s="19" t="n"/>
+      <c r="G30" s="29" t="inlineStr">
+        <is>
+          <t>FINALIZADO</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="18" t="inlineStr">
         <is>
-          <t>KAGE NO JITSURYOKA NI NARITAKUTE</t>
+          <t>HELL'S PARADISE</t>
         </is>
       </c>
       <c r="B31" s="18" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C31" s="18" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="D31" s="16">
         <f>C31/B31</f>
@@ -2408,7 +2542,8 @@
         <f>B31-C31</f>
         <v/>
       </c>
-      <c r="F31" s="19" t="inlineStr">
+      <c r="F31" s="19" t="n"/>
+      <c r="G31" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2417,14 +2552,14 @@
     <row r="32">
       <c r="A32" s="18" t="inlineStr">
         <is>
-          <t>KAGE NO JITSURYOKA NI NARITAKUTE! MASTER OF GARDEN</t>
+          <t>JUJUTSU KAISEN</t>
         </is>
       </c>
       <c r="B32" s="18" t="n">
-        <v>3</v>
+        <v>274</v>
       </c>
       <c r="C32" s="18" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="D32" s="16">
         <f>C32/B32</f>
@@ -2434,23 +2569,24 @@
         <f>B32-C32</f>
         <v/>
       </c>
-      <c r="F32" s="19" t="inlineStr">
-        <is>
-          <t>DESCONTINUADO</t>
+      <c r="F32" s="19" t="n"/>
+      <c r="G32" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="18" t="inlineStr">
         <is>
-          <t>KENGAN ASHURA</t>
+          <t>JUUJIKA NO ROKUNIN</t>
         </is>
       </c>
       <c r="B33" s="18" t="n">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="C33" s="18" t="n">
-        <v>262</v>
+        <v>177</v>
       </c>
       <c r="D33" s="16">
         <f>C33/B33</f>
@@ -2460,23 +2596,24 @@
         <f>B33-C33</f>
         <v/>
       </c>
-      <c r="F33" s="19" t="inlineStr">
-        <is>
-          <t>FINALIZADO</t>
+      <c r="F33" s="19" t="n"/>
+      <c r="G33" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="18" t="inlineStr">
         <is>
-          <t>LOGANDO 10.000 ANOS NO FUTURO</t>
+          <t>KAGE NO JITSURYOKA NI NARITAKUTE</t>
         </is>
       </c>
       <c r="B34" s="18" t="n">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="C34" s="18" t="n">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="D34" s="16">
         <f>C34/B34</f>
@@ -2486,7 +2623,8 @@
         <f>B34-C34</f>
         <v/>
       </c>
-      <c r="F34" s="19" t="inlineStr">
+      <c r="F34" s="19" t="n"/>
+      <c r="G34" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2495,14 +2633,14 @@
     <row r="35">
       <c r="A35" s="18" t="inlineStr">
         <is>
-          <t>MOKUSHIROKU NO YONKISHI</t>
+          <t>KENGAN ASHURA</t>
         </is>
       </c>
       <c r="B35" s="18" t="n">
-        <v>100</v>
+        <v>262</v>
       </c>
       <c r="C35" s="18" t="n">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="D35" s="16">
         <f>C35/B35</f>
@@ -2512,23 +2650,24 @@
         <f>B35-C35</f>
         <v/>
       </c>
-      <c r="F35" s="19" t="inlineStr">
-        <is>
-          <t>EM ANDAMENTO</t>
+      <c r="F35" s="19" t="n"/>
+      <c r="G35" s="29" t="inlineStr">
+        <is>
+          <t>FINALIZADO</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="18" t="inlineStr">
         <is>
-          <t>MR ZOMBIE</t>
+          <t>LOGANDO 10.000 ANOS NO FUTURO</t>
         </is>
       </c>
       <c r="B36" s="18" t="n">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="C36" s="18" t="n">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="D36" s="16">
         <f>C36/B36</f>
@@ -2538,7 +2677,8 @@
         <f>B36-C36</f>
         <v/>
       </c>
-      <c r="F36" s="19" t="inlineStr">
+      <c r="F36" s="19" t="n"/>
+      <c r="G36" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2547,14 +2687,14 @@
     <row r="37">
       <c r="A37" s="18" t="inlineStr">
         <is>
-          <t>MEU GUIA EXCLUSIVO DA TORRE</t>
+          <t>ME ESCOLHE</t>
         </is>
       </c>
       <c r="B37" s="18" t="n">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="C37" s="18" t="n">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="D37" s="16">
         <f>C37/B37</f>
@@ -2564,7 +2704,8 @@
         <f>B37-C37</f>
         <v/>
       </c>
-      <c r="F37" s="19" t="inlineStr">
+      <c r="F37" s="19" t="n"/>
+      <c r="G37" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2573,14 +2714,14 @@
     <row r="38">
       <c r="A38" s="18" t="inlineStr">
         <is>
-          <t>NARUTO</t>
+          <t>MEU GUIA EXCLUSIVO DA TORRE</t>
         </is>
       </c>
       <c r="B38" s="18" t="n">
-        <v>700</v>
+        <v>40</v>
       </c>
       <c r="C38" s="18" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="D38" s="16">
         <f>C38/B38</f>
@@ -2590,23 +2731,24 @@
         <f>B38-C38</f>
         <v/>
       </c>
-      <c r="F38" s="19" t="inlineStr">
-        <is>
-          <t>FINALIZADO</t>
+      <c r="F38" s="19" t="n"/>
+      <c r="G38" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="18" t="inlineStr">
         <is>
-          <t>NECROMANCER, THE ABSOLUTE SCOURGE</t>
+          <t>MIERUKO CHAN</t>
         </is>
       </c>
       <c r="B39" s="18" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C39" s="18" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D39" s="16">
         <f>C39/B39</f>
@@ -2616,7 +2758,8 @@
         <f>B39-C39</f>
         <v/>
       </c>
-      <c r="F39" s="19" t="inlineStr">
+      <c r="F39" s="19" t="n"/>
+      <c r="G39" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2625,14 +2768,14 @@
     <row r="40">
       <c r="A40" s="18" t="inlineStr">
         <is>
-          <t>O FILHO REGRESSOR DO DUQUE</t>
+          <t>MINHA VIDA ESCOLAR FINGINDO SER UMA PESSOA INÚTIL</t>
         </is>
       </c>
       <c r="B40" s="18" t="n">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C40" s="18" t="n">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="D40" s="16">
         <f>C40/B40</f>
@@ -2642,7 +2785,8 @@
         <f>B40-C40</f>
         <v/>
       </c>
-      <c r="F40" s="19" t="inlineStr">
+      <c r="F40" s="19" t="n"/>
+      <c r="G40" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2651,14 +2795,14 @@
     <row r="41">
       <c r="A41" s="18" t="inlineStr">
         <is>
-          <t>O JOGADOR QUE RETORNA 10.000 ANOS DEPOIS</t>
+          <t>MISSÕES NA VIDA REAL</t>
         </is>
       </c>
       <c r="B41" s="18" t="n">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="C41" s="18" t="n">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="D41" s="16">
         <f>C41/B41</f>
@@ -2668,7 +2812,8 @@
         <f>B41-C41</f>
         <v/>
       </c>
-      <c r="F41" s="19" t="inlineStr">
+      <c r="F41" s="19" t="n"/>
+      <c r="G41" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2677,14 +2822,16 @@
     <row r="42">
       <c r="A42" s="18" t="inlineStr">
         <is>
-          <t>O MELHOR HOMEM NO COMANDO</t>
+          <t>MOKUSHIROKU NO YONKISHI</t>
         </is>
       </c>
       <c r="B42" s="18" t="n">
-        <v>113</v>
-      </c>
-      <c r="C42" s="18" t="n">
-        <v>113</v>
+        <v>100</v>
+      </c>
+      <c r="C42" s="18" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
       </c>
       <c r="D42" s="16">
         <f>C42/B42</f>
@@ -2694,7 +2841,8 @@
         <f>B42-C42</f>
         <v/>
       </c>
-      <c r="F42" s="19" t="inlineStr">
+      <c r="F42" s="19" t="n"/>
+      <c r="G42" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2703,14 +2851,14 @@
     <row r="43">
       <c r="A43" s="18" t="inlineStr">
         <is>
-          <t>ONE PUNCH MAN</t>
+          <t>MR ZOMBIE</t>
         </is>
       </c>
       <c r="B43" s="18" t="n">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="C43" s="18" t="n">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="D43" s="16">
         <f>C43/B43</f>
@@ -2720,7 +2868,8 @@
         <f>B43-C43</f>
         <v/>
       </c>
-      <c r="F43" s="19" t="inlineStr">
+      <c r="F43" s="19" t="n"/>
+      <c r="G43" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2729,14 +2878,14 @@
     <row r="44">
       <c r="A44" s="18" t="inlineStr">
         <is>
-          <t>PICK ME UP</t>
+          <t>MY PATH TO KILLING GODS IN ANOTHER WORLD</t>
         </is>
       </c>
       <c r="B44" s="18" t="n">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="C44" s="18" t="n">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="D44" s="16">
         <f>C44/B44</f>
@@ -2746,7 +2895,8 @@
         <f>B44-C44</f>
         <v/>
       </c>
-      <c r="F44" s="19" t="inlineStr">
+      <c r="F44" s="19" t="n"/>
+      <c r="G44" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2755,14 +2905,14 @@
     <row r="45">
       <c r="A45" s="18" t="inlineStr">
         <is>
-          <t>POKEMON ADVENTURES</t>
+          <t>NARUTO</t>
         </is>
       </c>
       <c r="B45" s="18" t="n">
-        <v>525</v>
+        <v>700</v>
       </c>
       <c r="C45" s="18" t="n">
-        <v>525</v>
+        <v>155</v>
       </c>
       <c r="D45" s="16">
         <f>C45/B45</f>
@@ -2772,23 +2922,24 @@
         <f>B45-C45</f>
         <v/>
       </c>
-      <c r="F45" s="19" t="inlineStr">
-        <is>
-          <t>EM ANDAMENTO</t>
+      <c r="F45" s="19" t="n"/>
+      <c r="G45" s="29" t="inlineStr">
+        <is>
+          <t>FINALIZADO</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="18" t="inlineStr">
         <is>
-          <t>QUEST SUPREMACY</t>
+          <t>NECROMANCER, THE ULTIMATE SCOURGE</t>
         </is>
       </c>
       <c r="B46" s="18" t="n">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C46" s="18" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D46" s="16">
         <f>C46/B46</f>
@@ -2798,7 +2949,8 @@
         <f>B46-C46</f>
         <v/>
       </c>
-      <c r="F46" s="19" t="inlineStr">
+      <c r="F46" s="19" t="n"/>
+      <c r="G46" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2807,14 +2959,14 @@
     <row r="47">
       <c r="A47" s="18" t="inlineStr">
         <is>
-          <t>RANKER`S RETURN</t>
+          <t>NECROMANTE SEM LIMITES</t>
         </is>
       </c>
       <c r="B47" s="18" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C47" s="18" t="n">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D47" s="16">
         <f>C47/B47</f>
@@ -2824,7 +2976,8 @@
         <f>B47-C47</f>
         <v/>
       </c>
-      <c r="F47" s="19" t="inlineStr">
+      <c r="F47" s="19" t="n"/>
+      <c r="G47" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2833,14 +2986,14 @@
     <row r="48">
       <c r="A48" s="18" t="inlineStr">
         <is>
-          <t>REALITY QUEST</t>
+          <t>O FILHO REGRESSOR DO DUQUE É UM ASSASINO</t>
         </is>
       </c>
       <c r="B48" s="18" t="n">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="C48" s="18" t="n">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="D48" s="16">
         <f>C48/B48</f>
@@ -2850,7 +3003,8 @@
         <f>B48-C48</f>
         <v/>
       </c>
-      <c r="F48" s="19" t="inlineStr">
+      <c r="F48" s="19" t="n"/>
+      <c r="G48" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2859,14 +3013,14 @@
     <row r="49">
       <c r="A49" s="18" t="inlineStr">
         <is>
-          <t>REBIRTH OF THE STRONGEST SWORD GOD</t>
+          <t>O JOGADOR QUE RETORNA 10.000 ANOS DEPOIS</t>
         </is>
       </c>
       <c r="B49" s="18" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C49" s="18" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D49" s="16">
         <f>C49/B49</f>
@@ -2876,7 +3030,8 @@
         <f>B49-C49</f>
         <v/>
       </c>
-      <c r="F49" s="19" t="inlineStr">
+      <c r="F49" s="19" t="n"/>
+      <c r="G49" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2885,14 +3040,14 @@
     <row r="50">
       <c r="A50" s="18" t="inlineStr">
         <is>
-          <t>RETURN OF DISASTER CLASS HERO</t>
+          <t>O MELHOR HOMEM NO COMANDO</t>
         </is>
       </c>
       <c r="B50" s="18" t="n">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="C50" s="18" t="n">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="D50" s="16">
         <f>C50/B50</f>
@@ -2902,7 +3057,8 @@
         <f>B50-C50</f>
         <v/>
       </c>
-      <c r="F50" s="19" t="inlineStr">
+      <c r="F50" s="19" t="n"/>
+      <c r="G50" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2911,14 +3067,14 @@
     <row r="51">
       <c r="A51" s="18" t="inlineStr">
         <is>
-          <t>RETURN OF THE BLOODTHISRTY POLICE</t>
+          <t>O MUNDO APÓS A QUEDA</t>
         </is>
       </c>
       <c r="B51" s="18" t="n">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="C51" s="18" t="n">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="D51" s="16">
         <f>C51/B51</f>
@@ -2928,7 +3084,8 @@
         <f>B51-C51</f>
         <v/>
       </c>
-      <c r="F51" s="19" t="inlineStr">
+      <c r="F51" s="19" t="n"/>
+      <c r="G51" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2937,14 +3094,14 @@
     <row r="52">
       <c r="A52" s="18" t="inlineStr">
         <is>
-          <t>SASUKE SD</t>
+          <t>O NOVÁTO DE NIVEL MÁXIMO</t>
         </is>
       </c>
       <c r="B52" s="18" t="n">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="C52" s="18" t="n">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="D52" s="16">
         <f>C52/B52</f>
@@ -2954,23 +3111,24 @@
         <f>B52-C52</f>
         <v/>
       </c>
-      <c r="F52" s="19" t="inlineStr">
-        <is>
-          <t>DESCONTINUADO</t>
+      <c r="F52" s="19" t="n"/>
+      <c r="G52" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="18" t="inlineStr">
         <is>
-          <t>SECOND LIFE RANKER</t>
+          <t>O RETURN OF DISASTER CLASS HERO</t>
         </is>
       </c>
       <c r="B53" s="18" t="n">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="C53" s="18" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="D53" s="16">
         <f>C53/B53</f>
@@ -2980,7 +3138,8 @@
         <f>B53-C53</f>
         <v/>
       </c>
-      <c r="F53" s="19" t="inlineStr">
+      <c r="F53" s="19" t="n"/>
+      <c r="G53" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -2989,14 +3148,14 @@
     <row r="54">
       <c r="A54" s="18" t="inlineStr">
         <is>
-          <t>SEU TALENTO É MEU</t>
+          <t>ONE PUNCH MAN</t>
         </is>
       </c>
       <c r="B54" s="18" t="n">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="C54" s="18" t="n">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="D54" s="16">
         <f>C54/B54</f>
@@ -3006,7 +3165,8 @@
         <f>B54-C54</f>
         <v/>
       </c>
-      <c r="F54" s="19" t="inlineStr">
+      <c r="F54" s="19" t="n"/>
+      <c r="G54" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -3015,14 +3175,14 @@
     <row r="55">
       <c r="A55" s="18" t="inlineStr">
         <is>
-          <t>SOLO LEVELING</t>
+          <t>POISON DRAGON: THE LEGEND OF AN ASURA</t>
         </is>
       </c>
       <c r="B55" s="18" t="n">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="C55" s="18" t="n">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c r="D55" s="16">
         <f>C55/B55</f>
@@ -3032,23 +3192,24 @@
         <f>B55-C55</f>
         <v/>
       </c>
-      <c r="F55" s="19" t="inlineStr">
-        <is>
-          <t>FINALIZADO</t>
+      <c r="F55" s="19" t="n"/>
+      <c r="G55" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="18" t="inlineStr">
         <is>
-          <t>SOLO MAX LEVEL NEWBIE</t>
+          <t>POLICIAL ASSASINO</t>
         </is>
       </c>
       <c r="B56" s="18" t="n">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="C56" s="18" t="n">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="D56" s="16">
         <f>C56/B56</f>
@@ -3058,7 +3219,8 @@
         <f>B56-C56</f>
         <v/>
       </c>
-      <c r="F56" s="19" t="inlineStr">
+      <c r="F56" s="19" t="n"/>
+      <c r="G56" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -3067,14 +3229,14 @@
     <row r="57">
       <c r="A57" s="18" t="inlineStr">
         <is>
-          <t>SPIDER-MAN: OCTUPU-GIRL</t>
+          <t>QUEST SUPREMACY</t>
         </is>
       </c>
       <c r="B57" s="18" t="n">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="C57" s="18" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="D57" s="16">
         <f>C57/B57</f>
@@ -3084,23 +3246,24 @@
         <f>B57-C57</f>
         <v/>
       </c>
-      <c r="F57" s="19" t="inlineStr">
-        <is>
-          <t>DESCONTINUADO</t>
+      <c r="F57" s="19" t="n"/>
+      <c r="G57" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="18" t="inlineStr">
         <is>
-          <t>SUPREME ZERY LORD</t>
+          <t>REALITY QUEST</t>
         </is>
       </c>
       <c r="B58" s="18" t="n">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C58" s="18" t="n">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D58" s="16">
         <f>C58/B58</f>
@@ -3110,23 +3273,24 @@
         <f>B58-C58</f>
         <v/>
       </c>
-      <c r="F58" s="19" t="inlineStr">
-        <is>
-          <t>DESCONTINUADO</t>
+      <c r="F58" s="19" t="n"/>
+      <c r="G58" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="18" t="inlineStr">
         <is>
-          <t>THE CONSTELATIONS ARE MY DISCIPLES</t>
+          <t>REBIRTH OF THE STRONGEST SWORD GOD</t>
         </is>
       </c>
       <c r="B59" s="18" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C59" s="18" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D59" s="16">
         <f>C59/B59</f>
@@ -3136,7 +3300,8 @@
         <f>B59-C59</f>
         <v/>
       </c>
-      <c r="F59" s="19" t="inlineStr">
+      <c r="F59" s="19" t="n"/>
+      <c r="G59" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -3145,14 +3310,14 @@
     <row r="60">
       <c r="A60" s="18" t="inlineStr">
         <is>
-          <t>THE WORLD AFTER THE FALL</t>
+          <t>REVENGE OF THE BASKERVILLE</t>
         </is>
       </c>
       <c r="B60" s="18" t="n">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="C60" s="18" t="n">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="D60" s="16">
         <f>C60/B60</f>
@@ -3162,7 +3327,8 @@
         <f>B60-C60</f>
         <v/>
       </c>
-      <c r="F60" s="19" t="inlineStr">
+      <c r="F60" s="19" t="n"/>
+      <c r="G60" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
@@ -3171,14 +3337,14 @@
     <row r="61">
       <c r="A61" s="18" t="inlineStr">
         <is>
-          <t>TOKYO GHOUL</t>
+          <t>SENHOR DOS INSETOS</t>
         </is>
       </c>
       <c r="B61" s="18" t="n">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="C61" s="18" t="n">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="D61" s="16">
         <f>C61/B61</f>
@@ -3188,23 +3354,24 @@
         <f>B61-C61</f>
         <v/>
       </c>
-      <c r="F61" s="19" t="inlineStr">
-        <is>
-          <t>FINALIZADO</t>
+      <c r="F61" s="19" t="n"/>
+      <c r="G61" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="18" t="inlineStr">
         <is>
-          <t>TOKYO GHOUL:RE</t>
+          <t>SEU TALENTO É MEU</t>
         </is>
       </c>
       <c r="B62" s="18" t="n">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="C62" s="18" t="n">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="D62" s="16">
         <f>C62/B62</f>
@@ -3214,33 +3381,35 @@
         <f>B62-C62</f>
         <v/>
       </c>
-      <c r="F62" s="19" t="inlineStr">
-        <is>
-          <t>FINALIZADO</t>
+      <c r="F62" s="19" t="n"/>
+      <c r="G62" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="13" t="inlineStr">
-        <is>
-          <t>TOMODACHI GAME</t>
-        </is>
-      </c>
-      <c r="B63" s="13" t="n">
-        <v>129</v>
-      </c>
-      <c r="C63" s="13" t="n">
-        <v>129</v>
-      </c>
-      <c r="D63" s="17">
+      <c r="A63" s="18" t="inlineStr">
+        <is>
+          <t>SOLO LEVELING</t>
+        </is>
+      </c>
+      <c r="B63" s="18" t="n">
+        <v>202</v>
+      </c>
+      <c r="C63" s="18" t="n">
+        <v>202</v>
+      </c>
+      <c r="D63" s="16">
         <f>C63/B63</f>
         <v/>
       </c>
-      <c r="E63" s="21">
+      <c r="E63" s="9">
         <f>B63-C63</f>
         <v/>
       </c>
-      <c r="F63" s="19" t="inlineStr">
+      <c r="F63" s="19" t="n"/>
+      <c r="G63" s="29" t="inlineStr">
         <is>
           <t>FINALIZADO</t>
         </is>
@@ -3249,14 +3418,14 @@
     <row r="64">
       <c r="A64" s="18" t="inlineStr">
         <is>
-          <t>TOUGEN ANKI</t>
+          <t>SOLO LEVELING:RAGNAROK</t>
         </is>
       </c>
       <c r="B64" s="18" t="n">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="C64" s="18" t="n">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="D64" s="16">
         <f>C64/B64</f>
@@ -3266,59 +3435,174 @@
         <f>B64-C64</f>
         <v/>
       </c>
-      <c r="F64" s="19" t="inlineStr">
+      <c r="F64" s="19" t="n"/>
+      <c r="G64" s="29" t="inlineStr">
         <is>
           <t>EM ANDAMENTO</t>
         </is>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="18" t="inlineStr">
+        <is>
+          <t>SPIDER-MAN: OCTUPU-GIRL</t>
+        </is>
+      </c>
+      <c r="B65" s="18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C65" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="16">
+        <f>C65/B65</f>
+        <v/>
+      </c>
+      <c r="E65" s="9">
+        <f>B65-C65</f>
+        <v/>
+      </c>
+      <c r="F65" s="19" t="n"/>
+      <c r="G65" s="29" t="inlineStr">
+        <is>
+          <t>DESCONTINUADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="18" t="inlineStr">
+        <is>
+          <t>THE CONSTELATIONS ARE MY DISCIPLES</t>
+        </is>
+      </c>
+      <c r="B66" s="18" t="n">
+        <v>94</v>
+      </c>
+      <c r="C66" s="18" t="n">
+        <v>76</v>
+      </c>
+      <c r="D66" s="16">
+        <f>C66/B66</f>
+        <v/>
+      </c>
+      <c r="E66" s="9">
+        <f>B66-C66</f>
+        <v/>
+      </c>
+      <c r="F66" s="19" t="n"/>
+      <c r="G66" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
+        </is>
+      </c>
+    </row>
     <row r="67">
-      <c r="C67" s="22" t="n"/>
-      <c r="D67" s="22" t="n"/>
-      <c r="E67" s="22" t="n"/>
-      <c r="F67" s="22" t="n"/>
-      <c r="G67" s="22" t="n"/>
-      <c r="H67" s="22" t="n"/>
+      <c r="A67" s="18" t="inlineStr">
+        <is>
+          <t>TOKYO GHOUL</t>
+        </is>
+      </c>
+      <c r="B67" s="18" t="n">
+        <v>144</v>
+      </c>
+      <c r="C67" s="18" t="n">
+        <v>144</v>
+      </c>
+      <c r="D67" s="16">
+        <f>C67/B67</f>
+        <v/>
+      </c>
+      <c r="E67" s="9">
+        <f>B67-C67</f>
+        <v/>
+      </c>
+      <c r="F67" s="19" t="n"/>
+      <c r="G67" s="29" t="inlineStr">
+        <is>
+          <t>FINALIZADO</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="C68" s="22" t="n"/>
-      <c r="D68" s="22" t="n"/>
-      <c r="E68" s="22" t="n"/>
-      <c r="F68" s="22" t="n"/>
-      <c r="G68" s="22" t="n"/>
-      <c r="H68" s="22" t="n"/>
+      <c r="A68" s="18" t="inlineStr">
+        <is>
+          <t>TOKYO GHOUL:RE</t>
+        </is>
+      </c>
+      <c r="B68" s="18" t="n">
+        <v>181</v>
+      </c>
+      <c r="C68" s="18" t="n">
+        <v>181</v>
+      </c>
+      <c r="D68" s="16">
+        <f>C68/B68</f>
+        <v/>
+      </c>
+      <c r="E68" s="9">
+        <f>B68-C68</f>
+        <v/>
+      </c>
+      <c r="F68" s="19" t="n"/>
+      <c r="G68" s="29" t="inlineStr">
+        <is>
+          <t>FINALIZADO</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="C69" s="22" t="n"/>
-      <c r="D69" s="22" t="n"/>
-      <c r="E69" s="22" t="n"/>
-      <c r="F69" s="22" t="n"/>
-      <c r="G69" s="22" t="n"/>
-      <c r="H69" s="22" t="n"/>
+      <c r="A69" s="13" t="inlineStr">
+        <is>
+          <t>TOMODACHI GAME</t>
+        </is>
+      </c>
+      <c r="B69" s="13" t="n">
+        <v>129</v>
+      </c>
+      <c r="C69" s="13" t="n">
+        <v>129</v>
+      </c>
+      <c r="D69" s="17">
+        <f>C69/B69</f>
+        <v/>
+      </c>
+      <c r="E69" s="21">
+        <f>B69-C69</f>
+        <v/>
+      </c>
+      <c r="F69" s="19" t="n"/>
+      <c r="G69" s="29" t="inlineStr">
+        <is>
+          <t>FINALIZADO</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="C70" s="22" t="n"/>
-      <c r="D70" s="22" t="n"/>
-      <c r="E70" s="22" t="n"/>
-      <c r="F70" s="22" t="n"/>
-      <c r="G70" s="22" t="n"/>
-      <c r="H70" s="22" t="n"/>
-    </row>
-    <row r="71">
-      <c r="C71" s="22" t="n"/>
-      <c r="D71" s="22" t="n"/>
-      <c r="E71" s="22" t="n"/>
-      <c r="F71" s="22" t="n"/>
-      <c r="G71" s="22" t="n"/>
-      <c r="H71" s="22" t="n"/>
-    </row>
-    <row r="72">
-      <c r="C72" s="22" t="n"/>
-      <c r="D72" s="22" t="n"/>
-      <c r="E72" s="22" t="n"/>
-      <c r="F72" s="22" t="n"/>
-      <c r="G72" s="22" t="n"/>
-      <c r="H72" s="22" t="n"/>
+      <c r="A70" s="18" t="inlineStr">
+        <is>
+          <t>TOUGEN ANKI</t>
+        </is>
+      </c>
+      <c r="B70" s="18" t="n">
+        <v>134</v>
+      </c>
+      <c r="C70" s="18" t="n">
+        <v>133</v>
+      </c>
+      <c r="D70" s="16">
+        <f>C70/B70</f>
+        <v/>
+      </c>
+      <c r="E70" s="9">
+        <f>B70-C70</f>
+        <v/>
+      </c>
+      <c r="F70" s="19" t="n"/>
+      <c r="G70" s="29" t="inlineStr">
+        <is>
+          <t>EM ANDAMENTO</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="C73" s="22" t="n"/>
@@ -3327,6 +3611,7 @@
       <c r="F73" s="22" t="n"/>
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="22" t="n"/>
+      <c r="I73" s="22" t="n"/>
     </row>
     <row r="74">
       <c r="C74" s="22" t="n"/>
@@ -3335,6 +3620,7 @@
       <c r="F74" s="22" t="n"/>
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="22" t="n"/>
+      <c r="I74" s="22" t="n"/>
     </row>
     <row r="75">
       <c r="C75" s="22" t="n"/>
@@ -3343,6 +3629,7 @@
       <c r="F75" s="22" t="n"/>
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="22" t="n"/>
+      <c r="I75" s="22" t="n"/>
     </row>
     <row r="76">
       <c r="C76" s="22" t="n"/>
@@ -3351,34 +3638,89 @@
       <c r="F76" s="22" t="n"/>
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="22" t="n"/>
+      <c r="I76" s="22" t="n"/>
     </row>
     <row r="77">
+      <c r="C77" s="22" t="n"/>
+      <c r="D77" s="22" t="n"/>
+      <c r="E77" s="22" t="n"/>
+      <c r="F77" s="22" t="n"/>
+      <c r="G77" s="22" t="n"/>
       <c r="H77" s="22" t="n"/>
+      <c r="I77" s="22" t="n"/>
+    </row>
+    <row r="78">
+      <c r="C78" s="22" t="n"/>
+      <c r="D78" s="22" t="n"/>
+      <c r="E78" s="22" t="n"/>
+      <c r="F78" s="22" t="n"/>
+      <c r="G78" s="22" t="n"/>
+      <c r="H78" s="22" t="n"/>
+      <c r="I78" s="22" t="n"/>
+    </row>
+    <row r="79">
+      <c r="C79" s="22" t="n"/>
+      <c r="D79" s="22" t="n"/>
+      <c r="E79" s="22" t="n"/>
+      <c r="F79" s="22" t="n"/>
+      <c r="G79" s="22" t="n"/>
+      <c r="H79" s="22" t="n"/>
+      <c r="I79" s="22" t="n"/>
+    </row>
+    <row r="80">
+      <c r="C80" s="22" t="n"/>
+      <c r="D80" s="22" t="n"/>
+      <c r="E80" s="22" t="n"/>
+      <c r="F80" s="22" t="n"/>
+      <c r="G80" s="22" t="n"/>
+      <c r="H80" s="22" t="n"/>
+      <c r="I80" s="22" t="n"/>
+    </row>
+    <row r="81">
+      <c r="C81" s="22" t="n"/>
+      <c r="D81" s="22" t="n"/>
+      <c r="E81" s="22" t="n"/>
+      <c r="F81" s="22" t="n"/>
+      <c r="G81" s="22" t="n"/>
+      <c r="H81" s="22" t="n"/>
+      <c r="I81" s="22" t="n"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="22" t="n"/>
+      <c r="D82" s="22" t="n"/>
+      <c r="E82" s="22" t="n"/>
+      <c r="F82" s="22" t="n"/>
+      <c r="G82" s="22" t="n"/>
+      <c r="H82" s="22" t="n"/>
+      <c r="I82" s="22" t="n"/>
+    </row>
+    <row r="83">
+      <c r="I83" s="22" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D64">
+  <conditionalFormatting sqref="D2:D70">
     <cfRule type="expression" priority="4" dxfId="25">
       <formula>AND(D2&gt;50%, D2&lt;=90%)</formula>
     </cfRule>
+    <cfRule type="expression" priority="5" dxfId="24">
+      <formula>AND(D2&gt;20%, D2&lt;=50%)</formula>
+    </cfRule>
     <cfRule type="expression" priority="8" dxfId="1">
       <formula>D2&lt;=20%</formula>
-    </cfRule>
-    <cfRule type="expression" priority="5" dxfId="23">
-      <formula>AND(D2&gt;20%, D2&lt;=50%)</formula>
     </cfRule>
     <cfRule type="expression" priority="9" dxfId="0">
       <formula>D2&gt;90%</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F64">
-    <cfRule type="expression" priority="3" dxfId="21">
-      <formula>F2 = "FINALIZADO"</formula>
+  <conditionalFormatting sqref="G2:G70">
+    <cfRule type="expression" priority="1" dxfId="21">
+      <formula>G2 = "descontinuado"</formula>
     </cfRule>
     <cfRule type="expression" priority="2" dxfId="20">
-      <formula>F2 = "EM ANDAMENTO"</formula>
+      <formula>G2 = "EM ANDAMENTO"</formula>
     </cfRule>
-    <cfRule type="expression" priority="1" dxfId="19">
-      <formula>F2 = "descontinuado"</formula>
+    <cfRule type="expression" priority="3" dxfId="19">
+      <formula>G2 = "FINALIZADO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
@@ -3409,14 +3751,14 @@
   </cols>
   <sheetData>
     <row r="4" ht="15" customHeight="1" s="24">
-      <c r="B4" s="39" t="inlineStr">
+      <c r="B4" s="40" t="inlineStr">
         <is>
           <t>DIGITAL TAMERS TIER LIST</t>
         </is>
       </c>
-      <c r="C4" s="40" t="n"/>
-      <c r="D4" s="40" t="n"/>
-      <c r="E4" s="41" t="n"/>
+      <c r="C4" s="41" t="n"/>
+      <c r="D4" s="41" t="n"/>
+      <c r="E4" s="42" t="n"/>
       <c r="F4" s="22" t="n"/>
       <c r="G4" s="22" t="n"/>
       <c r="H4" s="22" t="n"/>
@@ -3427,8 +3769,8 @@
       <c r="M4" s="22" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1" s="24">
-      <c r="B5" s="42" t="n"/>
-      <c r="E5" s="43" t="n"/>
+      <c r="B5" s="43" t="n"/>
+      <c r="E5" s="44" t="n"/>
       <c r="F5" s="22" t="n"/>
       <c r="G5" s="22" t="n"/>
       <c r="H5" s="22" t="n"/>
@@ -3439,8 +3781,8 @@
       <c r="M5" s="22" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1" s="24">
-      <c r="B6" s="42" t="n"/>
-      <c r="E6" s="43" t="n"/>
+      <c r="B6" s="43" t="n"/>
+      <c r="E6" s="44" t="n"/>
       <c r="F6" s="22" t="n"/>
       <c r="G6" s="22" t="n"/>
       <c r="H6" s="22" t="n"/>
@@ -3451,8 +3793,8 @@
       <c r="M6" s="22" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1" s="24">
-      <c r="B7" s="42" t="n"/>
-      <c r="E7" s="43" t="n"/>
+      <c r="B7" s="43" t="n"/>
+      <c r="E7" s="44" t="n"/>
       <c r="F7" s="22" t="n"/>
       <c r="G7" s="22" t="n"/>
       <c r="H7" s="22" t="n"/>
@@ -3463,8 +3805,8 @@
       <c r="M7" s="22" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1" s="24">
-      <c r="B8" s="42" t="n"/>
-      <c r="E8" s="43" t="n"/>
+      <c r="B8" s="43" t="n"/>
+      <c r="E8" s="44" t="n"/>
       <c r="F8" s="22" t="n"/>
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="22" t="n"/>
@@ -3475,10 +3817,10 @@
       <c r="M8" s="22" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1" s="24">
-      <c r="B9" s="44" t="n"/>
-      <c r="C9" s="45" t="n"/>
-      <c r="D9" s="45" t="n"/>
-      <c r="E9" s="46" t="n"/>
+      <c r="B9" s="45" t="n"/>
+      <c r="C9" s="46" t="n"/>
+      <c r="D9" s="46" t="n"/>
+      <c r="E9" s="47" t="n"/>
       <c r="F9" s="22" t="n"/>
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="22" t="n"/>
@@ -3510,12 +3852,12 @@
         </is>
       </c>
       <c r="H10" s="22" t="n"/>
-      <c r="I10" s="38" t="inlineStr">
+      <c r="I10" s="39" t="inlineStr">
         <is>
           <t>busque um digimon aleatoriamente</t>
         </is>
       </c>
-      <c r="J10" s="47" t="n"/>
+      <c r="J10" s="48" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="18">
@@ -4354,52 +4696,52 @@
     <mergeCell ref="B4:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="E11:E37">
-    <cfRule type="expression" priority="48" dxfId="10">
-      <formula>D11&lt;30</formula>
+    <cfRule type="expression" priority="35" dxfId="4">
+      <formula>D11&gt;300</formula>
     </cfRule>
-    <cfRule type="expression" priority="47" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="17">
+      <formula>D11&gt;220</formula>
+    </cfRule>
+    <cfRule type="expression" priority="44" dxfId="16">
+      <formula>AND(D11&gt;125, D11&lt;=220)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="45" dxfId="8">
+      <formula>AND(D11&gt;80, D11&lt;=125)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="46" dxfId="9">
+      <formula>AND(D11&gt;50, D11&lt;=80)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="47" dxfId="10">
       <formula>AND(D11&gt;30, D11&lt;=50)</formula>
     </cfRule>
-    <cfRule type="expression" priority="46" dxfId="5">
-      <formula>AND(D11&gt;50, D11&lt;=80)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="45" dxfId="6">
-      <formula>AND(D11&gt;80, D11&lt;=125)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="44" dxfId="14">
-      <formula>AND(D11&gt;125, D11&lt;=220)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="37" dxfId="13">
-      <formula>D11&gt;220</formula>
-    </cfRule>
-    <cfRule type="expression" priority="35" dxfId="8">
-      <formula>D11&gt;300</formula>
+    <cfRule type="expression" priority="48" dxfId="11">
+      <formula>D11&lt;30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L14">
-    <cfRule type="expression" priority="29" dxfId="8">
-      <formula>K11 &lt;=500</formula>
-    </cfRule>
-    <cfRule type="expression" priority="22" dxfId="10">
+    <cfRule type="expression" priority="22" dxfId="11">
       <formula>K11 &lt;=30</formula>
     </cfRule>
-    <cfRule type="expression" priority="28" dxfId="8">
-      <formula>K11 &lt;=700</formula>
+    <cfRule type="expression" priority="23" dxfId="10">
+      <formula>K11 &lt;=50</formula>
     </cfRule>
-    <cfRule type="expression" priority="27" dxfId="8">
-      <formula>K11 &lt;=1000</formula>
+    <cfRule type="expression" priority="24" dxfId="9">
+      <formula>K11 &lt;=80</formula>
+    </cfRule>
+    <cfRule type="expression" priority="25" dxfId="8">
+      <formula>K11 &lt;=125</formula>
     </cfRule>
     <cfRule type="expression" priority="26" dxfId="7">
       <formula>K11 &lt;=220</formula>
     </cfRule>
-    <cfRule type="expression" priority="25" dxfId="6">
-      <formula>K11 &lt;=125</formula>
+    <cfRule type="expression" priority="27" dxfId="4">
+      <formula>K11 &lt;=1000</formula>
     </cfRule>
-    <cfRule type="expression" priority="24" dxfId="5">
-      <formula>K11 &lt;=80</formula>
+    <cfRule type="expression" priority="28" dxfId="4">
+      <formula>K11 &lt;=700</formula>
     </cfRule>
-    <cfRule type="expression" priority="23" dxfId="4">
-      <formula>K11 &lt;=50</formula>
+    <cfRule type="expression" priority="29" dxfId="4">
+      <formula>K11 &lt;=500</formula>
     </cfRule>
     <cfRule type="expression" priority="31" dxfId="3">
       <formula>K11 &lt;=300</formula>
